--- a/intro-to-ml-and-cnns/demo.xlsx
+++ b/intro-to-ml-and-cnns/demo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Shared/AI-Tutorials/CNN - Magic behind image classification/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Shared/AI-Tutorials/intro-to-ml-and-cnns/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A174C90-A2AB-D040-A11E-533F945ED993}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB67C885-8A50-2C41-9D67-FA84FC6F840A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" activeTab="4" xr2:uid="{7F7F8890-EA98-41F4-89EE-ABD861DC8A3B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" activeTab="2" xr2:uid="{7F7F8890-EA98-41F4-89EE-ABD861DC8A3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Convolving" sheetId="1" r:id="rId1"/>
@@ -423,10 +423,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="20% - Accent4" xfId="6" builtinId="42"/>
@@ -781,7 +781,7 @@
   <dimension ref="A5:AE12"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8:O12"/>
+      <selection activeCell="AA11" sqref="AA11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -928,11 +928,11 @@
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="4">
-        <f>SUM(SUMPRODUCT(K8:M10,$S$9:$U$11))</f>
+        <f>SUMPRODUCT(K8:M10,$S$9:$U$11)</f>
         <v>4</v>
       </c>
       <c r="Z9" s="4">
-        <f t="shared" ref="Z9:AA9" si="6">SUM(SUMPRODUCT(L8:N10,$S$9:$U$11))</f>
+        <f t="shared" ref="Z9:AA9" si="6">SUMPRODUCT(L8:N10,$S$9:$U$11)</f>
         <v>4</v>
       </c>
       <c r="AA9" s="4">
@@ -991,15 +991,15 @@
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="4">
-        <f t="shared" ref="Y10:Y11" si="7">SUM(SUMPRODUCT(K9:M11,$S$9:$U$11))</f>
+        <f t="shared" ref="Y10:Y11" si="7">SUMPRODUCT(K9:M11,$S$9:$U$11)</f>
         <v>5</v>
       </c>
       <c r="Z10" s="4">
-        <f t="shared" ref="Z10:Z11" si="8">SUM(SUMPRODUCT(L9:N11,$S$9:$U$11))</f>
+        <f t="shared" ref="Z10:Z11" si="8">SUMPRODUCT(L9:N11,$S$9:$U$11)</f>
         <v>5</v>
       </c>
       <c r="AA10" s="4">
-        <f t="shared" ref="AA10:AA11" si="9">SUM(SUMPRODUCT(M9:O11,$S$9:$U$11))</f>
+        <f t="shared" ref="AA10:AA11" si="9">SUMPRODUCT(M9:O11,$S$9:$U$11)</f>
         <v>3</v>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
   <dimension ref="A5:AD24"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18:P22"/>
+      <selection activeCell="Z19" sqref="Z19:AB21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1290,11 +1290,11 @@
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="4">
-        <f>SUM(SUMPRODUCT(K7:M9,$T$9:$V$11))</f>
+        <f>SUMPRODUCT(K7:M9,$T$9:$V$11)</f>
         <v>0</v>
       </c>
       <c r="AA8" s="4">
-        <f t="shared" ref="AA8:AD8" si="1">SUM(SUMPRODUCT(L7:N9,$T$9:$V$11))</f>
+        <f t="shared" ref="AA8:AD8" si="1">SUMPRODUCT(L7:N9,$T$9:$V$11)</f>
         <v>1</v>
       </c>
       <c r="AB8" s="4">
@@ -1367,23 +1367,23 @@
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="4">
-        <f t="shared" ref="Z9:Z12" si="7">SUM(SUMPRODUCT(K8:M10,$T$9:$V$11))</f>
+        <f t="shared" ref="Z9:Z11" si="7">SUMPRODUCT(K8:M10,$T$9:$V$11)</f>
         <v>1</v>
       </c>
       <c r="AA9" s="4">
-        <f t="shared" ref="AA9:AA12" si="8">SUM(SUMPRODUCT(L8:N10,$T$9:$V$11))</f>
+        <f t="shared" ref="AA9:AA12" si="8">SUMPRODUCT(L8:N10,$T$9:$V$11)</f>
         <v>4</v>
       </c>
       <c r="AB9" s="4">
-        <f t="shared" ref="AB9:AB12" si="9">SUM(SUMPRODUCT(M8:O10,$T$9:$V$11))</f>
+        <f t="shared" ref="AB9:AB12" si="9">SUMPRODUCT(M8:O10,$T$9:$V$11)</f>
         <v>4</v>
       </c>
       <c r="AC9" s="4">
-        <f t="shared" ref="AC9:AC12" si="10">SUM(SUMPRODUCT(N8:P10,$T$9:$V$11))</f>
+        <f t="shared" ref="AC9:AC12" si="10">SUMPRODUCT(N8:P10,$T$9:$V$11)</f>
         <v>3</v>
       </c>
       <c r="AD9" s="4">
-        <f t="shared" ref="AD9:AD12" si="11">SUM(SUMPRODUCT(O8:Q10,$T$9:$V$11))</f>
+        <f t="shared" ref="AD9:AD12" si="11">SUMPRODUCT(O8:Q10,$T$9:$V$11)</f>
         <v>0</v>
       </c>
     </row>
@@ -1592,7 +1592,7 @@
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
       <c r="Z12" s="4">
-        <f t="shared" si="7"/>
+        <f>SUMPRODUCT(K11:M13,$T$9:$V$11)</f>
         <v>0</v>
       </c>
       <c r="AA12" s="4">
@@ -1844,11 +1844,11 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="4">
-        <f>SUM(SUMPRODUCT(L18:N20,$T$19:$V$21))</f>
+        <f>SUMPRODUCT(L18:N20,$T$19:$V$21)</f>
         <v>4</v>
       </c>
       <c r="AA19" s="4">
-        <f t="shared" ref="AA19:AB19" si="18">SUM(SUMPRODUCT(M18:O20,$T$19:$V$21))</f>
+        <f t="shared" ref="AA19:AB19" si="18">SUMPRODUCT(M18:O20,$T$19:$V$21)</f>
         <v>4</v>
       </c>
       <c r="AB19" s="4">
@@ -1911,15 +1911,15 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
       <c r="Z20" s="4">
-        <f t="shared" ref="Z20:Z21" si="19">SUM(SUMPRODUCT(L19:N21,$T$19:$V$21))</f>
+        <f t="shared" ref="Z20:Z21" si="19">SUMPRODUCT(L19:N21,$T$19:$V$21)</f>
         <v>5</v>
       </c>
       <c r="AA20" s="4">
-        <f t="shared" ref="AA20:AA21" si="20">SUM(SUMPRODUCT(M19:O21,$T$19:$V$21))</f>
+        <f t="shared" ref="AA20:AA21" si="20">SUMPRODUCT(M19:O21,$T$19:$V$21)</f>
         <v>5</v>
       </c>
       <c r="AB20" s="4">
-        <f t="shared" ref="AB20:AB21" si="21">SUM(SUMPRODUCT(N19:P21,$T$19:$V$21))</f>
+        <f t="shared" ref="AB20:AB21" si="21">SUMPRODUCT(N19:P21,$T$19:$V$21)</f>
         <v>3</v>
       </c>
       <c r="AC20" s="1"/>
@@ -2161,8 +2161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C5E9633-4FAC-4036-88EB-96139249385F}">
   <dimension ref="A5:AA22"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18:O22"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Z21" sqref="Z21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2312,11 +2312,11 @@
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="4">
-        <f>SUM(SUMPRODUCT(K8:M10,$S$9:$U$11))</f>
+        <f>SUMPRODUCT(K8:M10,$S$9:$U$11)</f>
         <v>4</v>
       </c>
       <c r="Z9" s="4">
-        <f t="shared" ref="Z9:AA9" si="6">SUM(SUMPRODUCT(L8:N10,$S$9:$U$11))</f>
+        <f t="shared" ref="Z9:AA10" si="6">SUMPRODUCT(L8:N10,$S$9:$U$11)</f>
         <v>4</v>
       </c>
       <c r="AA9" s="4">
@@ -2376,15 +2376,15 @@
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="4">
-        <f>SUM(SUMPRODUCT(K9:M11,$S$9:$U$11))</f>
-        <v>5</v>
+        <f>SUMPRODUCT(K10:M12,$S$9:$U$11)</f>
+        <v>3</v>
       </c>
       <c r="Z10" s="4">
-        <f t="shared" ref="Z10" si="7">SUM(SUMPRODUCT(L9:N11,$S$9:$U$11))</f>
-        <v>5</v>
+        <f t="shared" ref="Z10:AA10" si="7">SUMPRODUCT(L10:N12,$S$9:$U$11)</f>
+        <v>3</v>
       </c>
       <c r="AA10" s="4">
-        <f t="shared" ref="AA10" si="8">SUM(SUMPRODUCT(M9:O11,$S$9:$U$11))</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
     </row>
@@ -2541,19 +2541,19 @@
         <v>0</v>
       </c>
       <c r="L18" s="5">
-        <f t="shared" ref="L18:O18" si="9">D18</f>
+        <f t="shared" ref="L18:O18" si="8">D18</f>
         <v>0</v>
       </c>
       <c r="M18" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N18" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O18" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P18" s="1"/>
@@ -2586,23 +2586,23 @@
         <v>0</v>
       </c>
       <c r="K19" s="5">
-        <f t="shared" ref="K19:K22" si="10">C19</f>
+        <f t="shared" ref="K19:K22" si="9">C19</f>
         <v>0</v>
       </c>
       <c r="L19" s="5">
-        <f t="shared" ref="L19:L22" si="11">D19</f>
+        <f t="shared" ref="L19:L22" si="10">D19</f>
         <v>1</v>
       </c>
       <c r="M19" s="5">
-        <f t="shared" ref="M19:M22" si="12">E19</f>
+        <f t="shared" ref="M19:M22" si="11">E19</f>
         <v>1</v>
       </c>
       <c r="N19" s="5">
-        <f t="shared" ref="N19:N22" si="13">F19</f>
+        <f t="shared" ref="N19:N22" si="12">F19</f>
         <v>0</v>
       </c>
       <c r="O19" s="5">
-        <f t="shared" ref="O19:O22" si="14">G19</f>
+        <f t="shared" ref="O19:O22" si="13">G19</f>
         <v>0</v>
       </c>
       <c r="P19" s="1"/>
@@ -2621,12 +2621,12 @@
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="4">
-        <f>SUM(SUMPRODUCT(K18:M20,$S$19:$U$21))</f>
+        <f>SUMPRODUCT(K18:M20,$S$19:$U$21)</f>
         <v>4</v>
       </c>
       <c r="Z19" s="4">
-        <f>SUM(SUMPRODUCT(L18:N20,$S$19:$U$21))</f>
-        <v>4</v>
+        <f>SUMPRODUCT(M18:O20,$S$19:$U$21)</f>
+        <v>3</v>
       </c>
       <c r="AA19" s="22"/>
     </row>
@@ -2647,23 +2647,23 @@
         <v>0</v>
       </c>
       <c r="K20" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L20" s="5">
+      <c r="M20" s="5">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="5">
+        <v>1</v>
+      </c>
+      <c r="N20" s="5">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="N20" s="5">
+        <v>0</v>
+      </c>
+      <c r="O20" s="5">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="O20" s="5">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P20" s="1"/>
@@ -2682,12 +2682,12 @@
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="4">
-        <f>SUM(SUMPRODUCT(K19:M21,$S$19:$U$21))</f>
-        <v>5</v>
+        <f>SUMPRODUCT(K20:M22,$S$19:$U$21)</f>
+        <v>3</v>
       </c>
       <c r="Z20" s="4">
-        <f>SUM(SUMPRODUCT(L19:N21,$S$19:$U$21))</f>
-        <v>5</v>
+        <f>SUMPRODUCT(M20:O22,$S$19:$U$21)</f>
+        <v>3</v>
       </c>
       <c r="AA20" s="22"/>
     </row>
@@ -2708,23 +2708,23 @@
         <v>0</v>
       </c>
       <c r="K21" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L21" s="5">
+      <c r="M21" s="5">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="M21" s="5">
+        <v>1</v>
+      </c>
+      <c r="N21" s="5">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="N21" s="5">
+        <v>0</v>
+      </c>
+      <c r="O21" s="5">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="O21" s="5">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P21" s="1"/>
@@ -2763,23 +2763,23 @@
         <v>0</v>
       </c>
       <c r="K22" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L22" s="5">
+      <c r="M22" s="5">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="M22" s="5">
+        <v>1</v>
+      </c>
+      <c r="N22" s="5">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="N22" s="5">
+        <v>0</v>
+      </c>
+      <c r="O22" s="5">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="O22" s="5">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P22" s="1"/>
@@ -2864,7 +2864,7 @@
   <dimension ref="A5:AR31"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+      <selection activeCell="AB11" sqref="AB11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3050,11 +3050,11 @@
         <v>0</v>
       </c>
       <c r="Z9" s="4">
-        <f>SUM(SUMPRODUCT(K8:M10,$T$10:$V$12))</f>
+        <f>SUMPRODUCT(K8:M10,$T$10:$V$12)</f>
         <v>0</v>
       </c>
       <c r="AA9" s="4">
-        <f t="shared" ref="AA9:AD9" si="1">SUM(SUMPRODUCT(L8:N10,$T$10:$V$12))</f>
+        <f t="shared" ref="AA9:AD9" si="1">SUMPRODUCT(L8:N10,$T$10:$V$12)</f>
         <v>1</v>
       </c>
       <c r="AB9" s="4">
@@ -3160,23 +3160,23 @@
         <v>0</v>
       </c>
       <c r="Z10" s="4">
-        <f t="shared" ref="Z10:Z13" si="8">SUM(SUMPRODUCT(K9:M11,$T$10:$V$12))</f>
+        <f t="shared" ref="Z10:Z13" si="8">SUMPRODUCT(K9:M11,$T$10:$V$12)</f>
         <v>1</v>
       </c>
       <c r="AA10" s="4">
-        <f t="shared" ref="AA10:AA13" si="9">SUM(SUMPRODUCT(L9:N11,$T$10:$V$12))</f>
+        <f t="shared" ref="AA10:AA13" si="9">SUMPRODUCT(L9:N11,$T$10:$V$12)</f>
         <v>4</v>
       </c>
       <c r="AB10" s="4">
-        <f t="shared" ref="AB10:AB13" si="10">SUM(SUMPRODUCT(M9:O11,$T$10:$V$12))</f>
+        <f t="shared" ref="AB10:AB13" si="10">SUMPRODUCT(M9:O11,$T$10:$V$12)</f>
         <v>4</v>
       </c>
       <c r="AC10" s="4">
-        <f t="shared" ref="AC10:AC13" si="11">SUM(SUMPRODUCT(N9:P11,$T$10:$V$12))</f>
+        <f t="shared" ref="AC10:AC13" si="11">SUMPRODUCT(N9:P11,$T$10:$V$12)</f>
         <v>3</v>
       </c>
       <c r="AD10" s="4">
-        <f t="shared" ref="AD10:AD13" si="12">SUM(SUMPRODUCT(O9:Q11,$T$10:$V$12))</f>
+        <f t="shared" ref="AD10:AD13" si="12">SUMPRODUCT(O9:Q11,$T$10:$V$12)</f>
         <v>0</v>
       </c>
       <c r="AE10" s="8">
@@ -4194,8 +4194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D06E09A-60ED-441B-B5FD-6CD9699DC21F}">
   <dimension ref="A4:BP60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView topLeftCell="A5" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4223,10 +4223,10 @@
   <sheetData>
     <row r="4" spans="1:68" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:68" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
       <c r="T5" s="19" t="s">
         <v>16</v>
       </c>
@@ -4433,12 +4433,12 @@
         <v>0</v>
       </c>
       <c r="Z9" s="26">
-        <f>MAX(0, SUM(SUMPRODUCT(K8:M10,$T$10:$V$12)) + $T$9)</f>
+        <f>MAX(0, SUMPRODUCT(K8:M10,$T$10:$V$12) + $T$9)</f>
         <v>0.102364705</v>
       </c>
       <c r="AA9" s="26">
-        <f t="shared" ref="AA9:AD9" si="1">MAX(0, SUM(SUMPRODUCT(L8:N10,$T$10:$V$12)) + $T$9)</f>
-        <v>0.12859927999999998</v>
+        <f t="shared" ref="AA9:AD9" si="1">MAX(0, SUMPRODUCT(L8:N10,$T$10:$V$12) + $T$9)</f>
+        <v>0.18340198499999999</v>
       </c>
       <c r="AB9" s="26">
         <f t="shared" si="1"/>
@@ -4446,11 +4446,11 @@
       </c>
       <c r="AC9" s="26">
         <f t="shared" si="1"/>
-        <v>2.1632300000000784E-3</v>
+        <v>0.73859366975930008</v>
       </c>
       <c r="AD9" s="26">
         <f t="shared" si="1"/>
-        <v>4.7565369759300001E-2</v>
+        <v>4.7562E-2</v>
       </c>
       <c r="AE9" s="8">
         <v>0</v>
@@ -4465,19 +4465,19 @@
       <c r="AM9" s="22"/>
       <c r="AN9" s="25">
         <f>MAX(Y8:AA10)</f>
-        <v>0.9198290549999999</v>
+        <v>0.86502634999999994</v>
       </c>
       <c r="AO9" s="25">
         <f>MAX(Z8:AB10)</f>
-        <v>2.6373542247593003</v>
+        <v>0.86502634999999994</v>
       </c>
       <c r="AP9" s="25">
         <f t="shared" ref="AO9:AR13" si="2">MAX(AA8:AC10)</f>
-        <v>2.6373542247593003</v>
+        <v>0.73866176499999991</v>
       </c>
       <c r="AQ9" s="25">
         <f t="shared" si="2"/>
-        <v>2.6373542247593003</v>
+        <v>0.73859366975930008</v>
       </c>
       <c r="AR9" s="25">
         <f t="shared" si="2"/>
@@ -4485,7 +4485,7 @@
       </c>
       <c r="AV9" s="25">
         <f>AN9</f>
-        <v>0.9198290549999999</v>
+        <v>0.86502634999999994</v>
       </c>
       <c r="AZ9" s="15">
         <v>-0.12265175</v>
@@ -4494,16 +4494,16 @@
       <c r="BG9" s="2"/>
       <c r="BH9" s="16">
         <f>SUMPRODUCT(AV9:AV33, $AZ$9:$AZ$33) + $AZ$8</f>
-        <v>1.9231519017102991</v>
+        <v>-4.3560532420910008</v>
       </c>
       <c r="BK9" s="2"/>
       <c r="BL9" s="24">
         <f>EXP(BH9) / SUM(EXP(BH9), EXP(BH36))</f>
-        <v>0.99791401986612205</v>
-      </c>
-      <c r="BP9" s="29">
+        <v>2.8902666017272842E-3</v>
+      </c>
+      <c r="BP9" s="29" t="str">
         <f>IF(BL9&gt;BL36, 0, "")</f>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:68" ht="16" thickTop="1" x14ac:dyDescent="0.2">
@@ -4514,10 +4514,10 @@
         <v>1</v>
       </c>
       <c r="E10" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="5">
         <v>0</v>
@@ -4535,11 +4535,11 @@
       </c>
       <c r="N10" s="5">
         <f t="shared" ref="N10:N13" si="5">E10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" s="5">
         <f t="shared" ref="O10:O13" si="6">F10</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" s="5">
         <f t="shared" ref="P10:P13" si="7">G10</f>
@@ -4565,24 +4565,24 @@
         <v>0</v>
       </c>
       <c r="Z10" s="26">
-        <f t="shared" ref="Z10:Z13" si="8">MAX(0, SUM(SUMPRODUCT(K9:M11,$T$10:$V$12)) + $T$9)</f>
-        <v>0.9198290549999999</v>
+        <f t="shared" ref="Z10:Z13" si="8">MAX(0, SUMPRODUCT(K9:M11,$T$10:$V$12) + $T$9)</f>
+        <v>0.86502634999999994</v>
       </c>
       <c r="AA10" s="26">
-        <f t="shared" ref="AA10:AA13" si="9">MAX(0, SUM(SUMPRODUCT(L9:N11,$T$10:$V$12)) + $T$9)</f>
-        <v>0</v>
+        <f t="shared" ref="AA10:AA13" si="9">MAX(0, SUMPRODUCT(L9:N11,$T$10:$V$12) + $T$9)</f>
+        <v>0.73866176499999991</v>
       </c>
       <c r="AB10" s="26">
-        <f t="shared" ref="AB10:AB13" si="10">MAX(0, SUM(SUMPRODUCT(M9:O11,$T$10:$V$12)) + $T$9)</f>
-        <v>2.6373542247593003</v>
+        <f t="shared" ref="AB10:AB13" si="10">MAX(0, SUMPRODUCT(M9:O11,$T$10:$V$12) + $T$9)</f>
+        <v>0.72001398000000016</v>
       </c>
       <c r="AC10" s="26">
-        <f t="shared" ref="AC10:AC13" si="11">MAX(0, SUM(SUMPRODUCT(N9:P11,$T$10:$V$12)) + $T$9)</f>
-        <v>0</v>
+        <f t="shared" ref="AC10:AC13" si="11">MAX(0, SUMPRODUCT(N9:P11,$T$10:$V$12) + $T$9)</f>
+        <v>0.7200576847593001</v>
       </c>
       <c r="AD10" s="26">
-        <f t="shared" ref="AD10:AD13" si="12">MAX(0, SUM(SUMPRODUCT(O9:Q11,$T$10:$V$12)) + $T$9)</f>
-        <v>0.73859366975930008</v>
+        <f t="shared" ref="AD10:AD13" si="12">MAX(0, SUMPRODUCT(O9:Q11,$T$10:$V$12) + $T$9)</f>
+        <v>4.7562E-2</v>
       </c>
       <c r="AE10" s="8">
         <v>0</v>
@@ -4597,19 +4597,19 @@
       <c r="AM10" s="22"/>
       <c r="AN10" s="25">
         <f t="shared" ref="AN10:AN13" si="13">MAX(Y9:AA11)</f>
-        <v>1.047304515</v>
+        <v>2.0737980150000004</v>
       </c>
       <c r="AO10" s="25">
         <f t="shared" si="2"/>
-        <v>2.6373542247593003</v>
+        <v>2.0737980150000004</v>
       </c>
       <c r="AP10" s="25">
         <f t="shared" si="2"/>
-        <v>2.6373542247593003</v>
+        <v>2.0737980150000004</v>
       </c>
       <c r="AQ10" s="25">
         <f t="shared" si="2"/>
-        <v>2.6373542247593003</v>
+        <v>0.73859366975930008</v>
       </c>
       <c r="AR10" s="25">
         <f t="shared" si="2"/>
@@ -4617,7 +4617,7 @@
       </c>
       <c r="AV10" s="25">
         <f>AO9</f>
-        <v>2.6373542247593003</v>
+        <v>0.86502634999999994</v>
       </c>
       <c r="AZ10" s="15">
         <v>0.34441808000000002</v>
@@ -4628,13 +4628,13 @@
         <v>0</v>
       </c>
       <c r="D11" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="5">
         <v>0</v>
@@ -4648,15 +4648,15 @@
       </c>
       <c r="M11" s="5">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="5">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" s="5">
         <f t="shared" si="7"/>
@@ -4683,23 +4683,23 @@
       </c>
       <c r="Z11" s="26">
         <f t="shared" si="8"/>
-        <v>1.047304515</v>
+        <v>0.17503746000000001</v>
       </c>
       <c r="AA11" s="26">
         <f t="shared" si="9"/>
-        <v>2.8985680000000021E-2</v>
+        <v>2.0737980150000004</v>
       </c>
       <c r="AB11" s="26">
         <f t="shared" si="10"/>
-        <v>1.7198001997593002</v>
+        <v>1.0449695000000044E-2</v>
       </c>
       <c r="AC11" s="26">
         <f t="shared" si="11"/>
-        <v>2.8985680000000021E-2</v>
+        <v>0.7200576847593001</v>
       </c>
       <c r="AD11" s="26">
         <f t="shared" si="12"/>
-        <v>0.7200576847593001</v>
+        <v>4.7562E-2</v>
       </c>
       <c r="AE11" s="8">
         <v>0</v>
@@ -4714,27 +4714,27 @@
       <c r="AM11" s="22"/>
       <c r="AN11" s="25">
         <f t="shared" si="13"/>
-        <v>1.047304515</v>
+        <v>2.0737980150000004</v>
       </c>
       <c r="AO11" s="25">
         <f t="shared" si="2"/>
-        <v>2.6373542247593003</v>
+        <v>2.0737980150000004</v>
       </c>
       <c r="AP11" s="25">
         <f t="shared" si="2"/>
-        <v>2.6373542247593003</v>
+        <v>2.0737980150000004</v>
       </c>
       <c r="AQ11" s="25">
         <f t="shared" si="2"/>
-        <v>2.6373542247593003</v>
+        <v>0.7200576847593001</v>
       </c>
       <c r="AR11" s="25">
         <f t="shared" si="2"/>
-        <v>0.76541611975930002</v>
+        <v>0.7200576847593001</v>
       </c>
       <c r="AV11" s="25">
         <f>AP9</f>
-        <v>2.6373542247593003</v>
+        <v>0.73866176499999991</v>
       </c>
       <c r="AZ11" s="15">
         <v>0.6001107</v>
@@ -4745,13 +4745,13 @@
         <v>0</v>
       </c>
       <c r="D12" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="5">
         <v>0</v>
@@ -4765,15 +4765,15 @@
       </c>
       <c r="M12" s="5">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" s="5">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" s="5">
         <f t="shared" si="7"/>
@@ -4800,23 +4800,23 @@
       </c>
       <c r="Z12" s="26">
         <f t="shared" si="8"/>
-        <v>0.99250180999999993</v>
+        <v>4.7562E-2</v>
       </c>
       <c r="AA12" s="26">
         <f t="shared" si="9"/>
-        <v>0.82021545499999993</v>
+        <v>1.047304515</v>
       </c>
       <c r="AB12" s="26">
         <f t="shared" si="10"/>
-        <v>0.92856705500000014</v>
+        <v>2.8985680000000021E-2</v>
       </c>
       <c r="AC12" s="26">
         <f t="shared" si="11"/>
-        <v>0.76541611975930002</v>
+        <v>0.7200576847593001</v>
       </c>
       <c r="AD12" s="26">
         <f t="shared" si="12"/>
-        <v>0.72005431500000006</v>
+        <v>4.7562E-2</v>
       </c>
       <c r="AE12" s="8">
         <v>0</v>
@@ -4831,27 +4831,27 @@
       <c r="AM12" s="22"/>
       <c r="AN12" s="25">
         <f t="shared" si="13"/>
-        <v>1.8915198499999999</v>
+        <v>2.0737980150000004</v>
       </c>
       <c r="AO12" s="25">
         <f t="shared" si="2"/>
-        <v>1.8915198499999999</v>
+        <v>2.0737980150000004</v>
       </c>
       <c r="AP12" s="25">
         <f t="shared" si="2"/>
-        <v>1.8915198499999999</v>
+        <v>2.0737980150000004</v>
       </c>
       <c r="AQ12" s="25">
         <f t="shared" si="2"/>
-        <v>1.7650838000000002</v>
+        <v>0.76541274999999998</v>
       </c>
       <c r="AR12" s="25">
         <f t="shared" si="2"/>
-        <v>1.7650838000000002</v>
+        <v>0.7200576847593001</v>
       </c>
       <c r="AV12" s="25">
         <f>AQ9</f>
-        <v>2.6373542247593003</v>
+        <v>0.73859366975930008</v>
       </c>
       <c r="AZ12" s="15">
         <v>0.25966388000000001</v>
@@ -4911,23 +4911,23 @@
       </c>
       <c r="Z13" s="26">
         <f t="shared" si="8"/>
-        <v>0.17503746000000001</v>
+        <v>4.7562E-2</v>
       </c>
       <c r="AA13" s="26">
         <f t="shared" si="9"/>
-        <v>1.8915198499999999</v>
+        <v>0.99250180999999993</v>
       </c>
       <c r="AB13" s="26">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.76541274999999998</v>
       </c>
       <c r="AC13" s="26">
         <f t="shared" si="11"/>
-        <v>1.7650838000000002</v>
+        <v>0.72005431500000006</v>
       </c>
       <c r="AD13" s="26">
         <f t="shared" si="12"/>
-        <v>2.9026014999999999E-2</v>
+        <v>4.7562E-2</v>
       </c>
       <c r="AE13" s="8">
         <v>0</v>
@@ -4942,23 +4942,23 @@
       <c r="AM13" s="22"/>
       <c r="AN13" s="25">
         <f t="shared" si="13"/>
-        <v>1.8915198499999999</v>
+        <v>1.047304515</v>
       </c>
       <c r="AO13" s="25">
         <f t="shared" si="2"/>
-        <v>1.8915198499999999</v>
+        <v>1.047304515</v>
       </c>
       <c r="AP13" s="25">
         <f t="shared" si="2"/>
-        <v>1.8915198499999999</v>
+        <v>1.047304515</v>
       </c>
       <c r="AQ13" s="25">
         <f t="shared" si="2"/>
-        <v>1.7650838000000002</v>
+        <v>0.76541274999999998</v>
       </c>
       <c r="AR13" s="25">
         <f t="shared" si="2"/>
-        <v>1.7650838000000002</v>
+        <v>0.7200576847593001</v>
       </c>
       <c r="AV13" s="25">
         <f>AR9</f>
@@ -5020,7 +5020,7 @@
       </c>
       <c r="AV14" s="25">
         <f>AN10</f>
-        <v>1.047304515</v>
+        <v>2.0737980150000004</v>
       </c>
       <c r="AZ14" s="15">
         <v>-0.32615032999999999</v>
@@ -5029,7 +5029,7 @@
     <row r="15" spans="1:68" x14ac:dyDescent="0.2">
       <c r="AV15" s="25">
         <f>AO10</f>
-        <v>2.6373542247593003</v>
+        <v>2.0737980150000004</v>
       </c>
       <c r="AZ15" s="15">
         <v>-0.25310746000000001</v>
@@ -5038,7 +5038,7 @@
     <row r="16" spans="1:68" x14ac:dyDescent="0.2">
       <c r="AV16" s="25">
         <f>AP10</f>
-        <v>2.6373542247593003</v>
+        <v>2.0737980150000004</v>
       </c>
       <c r="AZ16" s="15">
         <v>8.6400956000000001E-2</v>
@@ -5047,7 +5047,7 @@
     <row r="17" spans="3:52" x14ac:dyDescent="0.2">
       <c r="AV17" s="25">
         <f>AQ10</f>
-        <v>2.6373542247593003</v>
+        <v>0.73859366975930008</v>
       </c>
       <c r="AZ17" s="15">
         <v>0.18277957</v>
@@ -5065,7 +5065,7 @@
     <row r="19" spans="3:52" x14ac:dyDescent="0.2">
       <c r="AV19" s="25">
         <f>AN11</f>
-        <v>1.047304515</v>
+        <v>2.0737980150000004</v>
       </c>
       <c r="AZ19" s="15">
         <v>-0.33834785000000001</v>
@@ -5074,7 +5074,7 @@
     <row r="20" spans="3:52" x14ac:dyDescent="0.2">
       <c r="AV20" s="25">
         <f>AO11</f>
-        <v>2.6373542247593003</v>
+        <v>2.0737980150000004</v>
       </c>
       <c r="AZ20" s="15">
         <v>-0.120262235</v>
@@ -5098,7 +5098,7 @@
       </c>
       <c r="AV21" s="25">
         <f>AP11</f>
-        <v>2.6373542247593003</v>
+        <v>2.0737980150000004</v>
       </c>
       <c r="AZ21" s="15">
         <v>-0.35742069999999998</v>
@@ -5122,7 +5122,7 @@
       </c>
       <c r="AV22" s="25">
         <f>AQ11</f>
-        <v>2.6373542247593003</v>
+        <v>0.7200576847593001</v>
       </c>
       <c r="AZ22" s="15">
         <v>0.71897465000000005</v>
@@ -5146,7 +5146,7 @@
       </c>
       <c r="AV23" s="25">
         <f>AR11</f>
-        <v>0.76541611975930002</v>
+        <v>0.7200576847593001</v>
       </c>
       <c r="AZ23" s="15">
         <v>-9.841946E-2</v>
@@ -5170,7 +5170,7 @@
       </c>
       <c r="AV24" s="25">
         <f>AN12</f>
-        <v>1.8915198499999999</v>
+        <v>2.0737980150000004</v>
       </c>
       <c r="AZ24" s="15">
         <v>-0.71557519999999997</v>
@@ -5194,7 +5194,7 @@
       </c>
       <c r="AV25" s="25">
         <f>AO12</f>
-        <v>1.8915198499999999</v>
+        <v>2.0737980150000004</v>
       </c>
       <c r="AZ25" s="15">
         <v>-0.27383867000000001</v>
@@ -5203,7 +5203,7 @@
     <row r="26" spans="3:52" x14ac:dyDescent="0.2">
       <c r="AV26" s="25">
         <f>AP12</f>
-        <v>1.8915198499999999</v>
+        <v>2.0737980150000004</v>
       </c>
       <c r="AZ26" s="15">
         <v>-0.67337860000000005</v>
@@ -5227,7 +5227,7 @@
       </c>
       <c r="AV27" s="25">
         <f>AQ12</f>
-        <v>1.7650838000000002</v>
+        <v>0.76541274999999998</v>
       </c>
       <c r="AZ27" s="15">
         <v>0.20231157999999999</v>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AV28" s="25">
         <f>AR12</f>
-        <v>1.7650838000000002</v>
+        <v>0.7200576847593001</v>
       </c>
       <c r="AZ28" s="15">
         <v>0.42223755000000002</v>
@@ -5275,7 +5275,7 @@
       </c>
       <c r="AV29" s="25">
         <f>AN13</f>
-        <v>1.8915198499999999</v>
+        <v>1.047304515</v>
       </c>
       <c r="AZ29" s="15">
         <v>0.19316965</v>
@@ -5299,7 +5299,7 @@
       </c>
       <c r="AV30" s="25">
         <f>AO13</f>
-        <v>1.8915198499999999</v>
+        <v>1.047304515</v>
       </c>
       <c r="AZ30" s="15">
         <v>-0.1080942</v>
@@ -5323,7 +5323,7 @@
       </c>
       <c r="AV31" s="25">
         <f>AP13</f>
-        <v>1.8915198499999999</v>
+        <v>1.047304515</v>
       </c>
       <c r="AZ31" s="15">
         <v>-6.1465016999999997E-2</v>
@@ -5332,7 +5332,7 @@
     <row r="32" spans="3:52" x14ac:dyDescent="0.2">
       <c r="AV32" s="25">
         <f>AQ13</f>
-        <v>1.7650838000000002</v>
+        <v>0.76541274999999998</v>
       </c>
       <c r="AZ32" s="15">
         <v>0.6460321</v>
@@ -5356,7 +5356,7 @@
       </c>
       <c r="AV33" s="25">
         <f>AR13</f>
-        <v>1.7650838000000002</v>
+        <v>0.7200576847593001</v>
       </c>
       <c r="AZ33" s="15">
         <v>0.37383889999999997</v>
@@ -5411,7 +5411,7 @@
       <c r="E36" s="5">
         <v>0</v>
       </c>
-      <c r="F36" s="31">
+      <c r="F36" s="30">
         <v>0</v>
       </c>
       <c r="G36" s="5">
@@ -5423,15 +5423,15 @@
       </c>
       <c r="BH36" s="16">
         <f>SUMPRODUCT(AV9:AV33,$AZ$36:$AZ$60) + $AZ$35</f>
-        <v>-4.2472763854662947</v>
+        <v>1.4874588378011047</v>
       </c>
       <c r="BL36" s="24">
         <f>EXP(BH36)/SUM(EXP(BH36), EXP(BH9))</f>
-        <v>2.0859801338779307E-3</v>
-      </c>
-      <c r="BP36" s="29" t="str">
+        <v>0.99710973339827269</v>
+      </c>
+      <c r="BP36" s="29">
         <f>IF(BL9&lt;BL36, 1, "")</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="3:68" x14ac:dyDescent="0.2">
@@ -5661,7 +5661,7 @@
     <mergeCell ref="K5:N5"/>
   </mergeCells>
   <conditionalFormatting sqref="L9:P13">
-    <cfRule type="colorScale" priority="60">
+    <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5671,7 +5671,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z9:AD13">
-    <cfRule type="colorScale" priority="59">
+    <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5681,7 +5681,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN9:AR13">
-    <cfRule type="colorScale" priority="58">
+    <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5691,7 +5691,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:G25">
-    <cfRule type="colorScale" priority="56">
+    <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5701,7 +5701,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV9">
-    <cfRule type="colorScale" priority="52">
+    <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5711,6 +5711,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV10:AV13 AV34:AV47">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFCFD8DC"/>
+        <color rgb="FF263238"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV14">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
@@ -5720,7 +5730,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV14">
+  <conditionalFormatting sqref="AV15:AV18">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -5730,7 +5740,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV15:AV18">
+  <conditionalFormatting sqref="AV19">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
@@ -5740,7 +5750,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV19">
+  <conditionalFormatting sqref="AV20:AV23">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
@@ -5750,7 +5760,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV20:AV23">
+  <conditionalFormatting sqref="AV24">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
@@ -5760,7 +5770,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV24">
+  <conditionalFormatting sqref="AV25:AV28">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
@@ -5770,7 +5780,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV25:AV28">
+  <conditionalFormatting sqref="AV29">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -5780,7 +5790,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV29">
+  <conditionalFormatting sqref="AV30:AV33">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -5790,18 +5800,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV30:AV33">
-    <cfRule type="colorScale" priority="41">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFCFD8DC"/>
-        <color rgb="FF263238"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AZ36:AZ60 AZ9:AZ33">
-    <cfRule type="colorScale" priority="61">
+    <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5809,7 +5809,7 @@
         <color rgb="FF7030A0"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="62">
+    <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5817,7 +5817,7 @@
         <color theme="4" tint="-0.499984740745262"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="63">
+    <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5827,7 +5827,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH36 BH9">
-    <cfRule type="colorScale" priority="34">
+    <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5835,7 +5835,7 @@
         <color rgb="FFF86308"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="35">
+    <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5843,7 +5843,7 @@
         <color theme="7" tint="0.39997558519241921"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="36">
+    <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5851,7 +5851,7 @@
         <color rgb="FFFF0066"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="37">
+    <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5861,7 +5861,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:G31">
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5871,17 +5871,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP36">
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP9">
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33:G37">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5891,7 +5891,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39:G43">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
